--- a/biology/Botanique/Mélitte_à_feuilles_de_mélisse/Mélitte_à_feuilles_de_mélisse.xlsx
+++ b/biology/Botanique/Mélitte_à_feuilles_de_mélisse/Mélitte_à_feuilles_de_mélisse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9litte_%C3%A0_feuilles_de_m%C3%A9lisse</t>
+          <t>Mélitte_à_feuilles_de_mélisse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Melittis melissophyllum
 La mélitte à feuilles de mélisse (Melittis melissophyllum) est une espèce de plantes herbacées vivaces de la famille des Lamiacées, originaire d'Europe. C'est la seule espèce du genre Melittis.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9litte_%C3%A0_feuilles_de_m%C3%A9lisse</t>
+          <t>Mélitte_à_feuilles_de_mélisse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante vivace, haute de 25 à 75 centimètres[1], velue.
-Les organes reproducteurs sont contenus dans de grandes fleurs (35 - 45 mm)[2] blanches et/ou roses qui apparaissent de juin à août en glomérules. Ce sont des fleurs hermaphrodites à maturation protandre. La pollinisation est entomogame. Le fruit est un akène à dissémination barochore.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante vivace, haute de 25 à 75 centimètres, velue.
+Les organes reproducteurs sont contenus dans de grandes fleurs (35 - 45 mm) blanches et/ou roses qui apparaissent de juin à août en glomérules. Ce sont des fleurs hermaphrodites à maturation protandre. La pollinisation est entomogame. Le fruit est un akène à dissémination barochore.
 			Aspect général
 			Détail de fleurs blanches et roses et des feuilles
 			Fleurs roses et feuilles
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9litte_%C3%A0_feuilles_de_m%C3%A9lisse</t>
+          <t>Mélitte_à_feuilles_de_mélisse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'habitat type est les ourlets basophiles médioeuropéens[2] (Europe méridionale).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'habitat type est les ourlets basophiles médioeuropéens (Europe méridionale).
 </t>
         </is>
       </c>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>M%C3%A9litte_%C3%A0_feuilles_de_m%C3%A9lisse</t>
+          <t>Mélitte_à_feuilles_de_mélisse</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,9 +594,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (11 avril 2014)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (11 avril 2014) :
 sous-espèce Melittis melissophyllum subsp. albida (Guss.) P.W.Ball
 sous-espèce Melittis melissophyllum subsp. carpatica (Klokov) P.W.Ball
 sous-espèce Melittis melissophyllum subsp. melissophyllum</t>
